--- a/Dismiss-Stale-Reviews-Action-Test-Cases.xlsx
+++ b/Dismiss-Stale-Reviews-Action-Test-Cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>Table 1</t>
   </si>
@@ -52,6 +52,9 @@
     <t>Link to Workflow Run</t>
   </si>
   <si>
+    <t>PR Link</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -73,6 +76,28 @@
     <t>Reviews should be dismissed.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-action/actions/runs/6352041723/job/17254229039</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-action/pull/3</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Approved reviews are NOT dismissed when force-pushed changes don’t have a codeowner and the no-owner-action setting is set to dismiss-all </t>
   </si>
   <si>
@@ -82,16 +107,113 @@
     <t>Reviews should NOT be dismissed.</t>
   </si>
   <si>
-    <t>Force-push-action has higher priority than no-owner-action.</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-action/actions/runs/6352240352/job/17254747625</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-action/pull/4</t>
+    </r>
+  </si>
+  <si>
+    <t>Force-push-action has higher priority than no-owner-action Log improvement needed!</t>
   </si>
   <si>
     <t>Approved reviews are NOT dismissed when changes don’t have a code owner and no-owner-action setting is set to dismiss-none</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-action/actions/runs/6352564532/job/17255628402</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-action/pull/5</t>
+    </r>
+  </si>
+  <si>
     <t>Approved reviews are dismissed when changes don’t have a code owner and no-owner-action setting is set to dismiss-none, changes are force-pushed.</t>
   </si>
   <si>
-    <t>Approved reviews are NOT dismissed when changes don’t have a code owner and both no-owner-action and force-push-action set to dismiss-none</t>
+    <t>Reviews NOT dismissed.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-action/actions/runs/6352644266/job/17255903108</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-action/pull/6</t>
+    </r>
+  </si>
+  <si>
+    <t>Inconsistent behavior we have seen in another test with same steps it dismissed reviews due to force push action set to dismiss-all.</t>
+  </si>
+  <si>
+    <t>Approved reviews are NOT dismissed when changes don’t have a code owner  are force-pushed, both no-owner-action and force-push-action set to dismiss-none</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-action/actions/runs/6352917619/job/17256633112</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-action/pull/8</t>
+    </r>
+  </si>
+  <si>
+    <t>Log improvement needed!</t>
   </si>
   <si>
     <t>Approved reviews are dismissed when new changes are relevant to the codeowner that already approved.</t>
@@ -103,16 +225,107 @@
     <t xml:space="preserve">No </t>
   </si>
   <si>
-    <t>Approved reviews are NOT dismissed when new changes are relevant to the codeowner that already approved are force-pushed.</t>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-action/actions/runs/6353188276/job/17257364825</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-action/pull/9</t>
+    </r>
+  </si>
+  <si>
+    <t>Approved reviews are NOT dismissed when new changes are relevant to the codeowner that already approved are force-pushed, force-push-action is set to dismiss-none.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-action/actions/runs/6353279879/job/17257657632</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-action/pull/10</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Approved reviews are NOT dismissed when new changes have a codeowner but are not relevant to the code owner that already approved. </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-action/actions/runs/6353327676/job/17257823655</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-action/pull/11</t>
+    </r>
+  </si>
+  <si>
     <t>All reviews are dismissed when force-push occurs with setting force-push-action=dismiss-all.</t>
   </si>
   <si>
-    <t>Rebasing locally + additional commit after force-push should cause dismissal of reviews.</t>
+    <t>Rebasing locally + additional commit should cause dismissal of reviews due-to force-push, force-push-action is set to dismiss-all.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-action/actions/runs/6353992406/job/17259689706</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://github.com/test-stuff-123/test-stale-review-action/pull/21</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Inconsistency is detected about this behavior. </t>
   </si>
   <si>
     <t>Updating branch with rebasing option from GitHub GUI should trigger dismissal of reviews.</t>
@@ -125,7 +338,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -147,8 +360,14 @@
       <color indexed="8"/>
       <name val="Helvetica Neue Medium"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,12 +382,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="14"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="16"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -211,6 +448,21 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
@@ -271,6 +523,66 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
         <color indexed="12"/>
       </right>
       <top style="thin">
@@ -311,13 +623,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -334,60 +661,90 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -411,9 +768,423 @@
       <rgbColor rgb="ffc8c8c8"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff89847f"/>
+      <rgbColor rgb="ff7f7f7f"/>
+      <rgbColor rgb="ff88f94e"/>
+      <rgbColor rgb="fffe634d"/>
+      <rgbColor rgb="fffff056"/>
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1238931</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4123822</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>113961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Screenshot 2023-09-29 at 9.09.18 AM.png" descr="Screenshot 2023-09-29 at 9.09.18 AM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12376831" y="1159977"/>
+          <a:ext cx="4129491" cy="1793070"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1238931</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>335848</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4433327</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1513739</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Screenshot 2023-09-29 at 9.25.58 AM.png" descr="Screenshot 2023-09-29 at 9.25.58 AM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12376831" y="3174933"/>
+          <a:ext cx="4438997" cy="1177892"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>143505</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>310128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4582501</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1565897</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Screenshot 2023-09-29 at 9.52.47 AM.png" descr="Screenshot 2023-09-29 at 9.52.47 AM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12526005" y="4920228"/>
+          <a:ext cx="4438997" cy="1255769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>117803</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>252899</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4309855</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1562915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Screenshot 2023-09-29 at 10.05.11 AM.png" descr="Screenshot 2023-09-29 at 10.05.11 AM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12500303" y="6634014"/>
+          <a:ext cx="4192052" cy="1310017"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>143505</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>365125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4335556</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1675141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Screenshot 2023-09-29 at 10.30.50 AM.png" descr="Screenshot 2023-09-29 at 10.30.50 AM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12526005" y="8517255"/>
+          <a:ext cx="4192051" cy="1310017"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>117803</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9947</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4556800</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2091954</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Screenshot 2023-09-29 at 10.43.32 AM.png" descr="Screenshot 2023-09-29 at 10.43.32 AM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12500303" y="9933092"/>
+          <a:ext cx="4438997" cy="2082008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47496</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>434115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4556799</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1501582</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Screenshot 2023-09-29 at 10.53.02 AM.png" descr="Screenshot 2023-09-29 at 10.53.02 AM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12429996" y="12722635"/>
+          <a:ext cx="4509304" cy="1067468"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>70642</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>150496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4433327</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>10662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Screenshot 2023-09-29 at 10.58.17 AM.png" descr="Screenshot 2023-09-29 at 10.58.17 AM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12453142" y="14210031"/>
+          <a:ext cx="4362686" cy="1631182"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>117803</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>197002</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3796737</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2358055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Screenshot 2023-09-29 at 12.05.32 PM.png" descr="Screenshot 2023-09-29 at 12.05.32 PM.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9">
+          <a:extLst/>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12500303" y="17798567"/>
+          <a:ext cx="3678935" cy="2161053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1439,7 +2210,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:M13"/>
+  <dimension ref="A2:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1450,9 +2221,9 @@
     <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.6406" style="1" customWidth="1"/>
     <col min="3" max="10" width="16.3516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="32.3203" style="1" customWidth="1"/>
-    <col min="12" max="13" width="16.3516" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="11" max="11" width="60.2344" style="1" customWidth="1"/>
+    <col min="12" max="14" width="16.3516" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -1471,6 +2242,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" ht="56.45" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -1497,10 +2269,10 @@
       <c r="H2" t="s" s="4">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="4">
+      <c r="I2" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="4">
+      <c r="J2" t="s" s="5">
         <v>10</v>
       </c>
       <c r="K2" t="s" s="4">
@@ -1509,377 +2281,472 @@
       <c r="L2" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="M2" t="s" s="5">
+      <c r="M2" t="s" s="4">
         <v>13</v>
       </c>
+      <c r="N2" t="s" s="6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" ht="56.45" customHeight="1">
-      <c r="A3" s="6">
+    <row r="3" ht="139.45" customHeight="1">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="7">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s" s="8">
+      <c r="B3" t="s" s="8">
         <v>15</v>
       </c>
-      <c r="D3" t="s" s="8">
+      <c r="C3" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="E3" t="s" s="8">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s" s="8">
+      <c r="D3" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="G3" t="s" s="8">
+      <c r="E3" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s" s="9">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s" s="10">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s" s="11">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s" s="12">
+        <v>20</v>
+      </c>
+      <c r="K3" s="13"/>
+      <c r="L3" t="s" s="14">
+        <v>21</v>
+      </c>
+      <c r="M3" t="s" s="14">
+        <v>22</v>
+      </c>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" ht="139.45" customHeight="1">
+      <c r="A4" s="16">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s" s="17">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="H3" t="s" s="8">
+      <c r="E4" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="I3" t="s" s="9">
+      <c r="G4" t="s" s="18">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
+      <c r="I4" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s" s="19">
+        <v>25</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" t="s" s="21">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s" s="21">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s" s="22">
+        <v>28</v>
+      </c>
     </row>
-    <row r="4" ht="68.2" customHeight="1">
-      <c r="A4" s="12">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="13">
+    <row r="5" ht="139.45" customHeight="1">
+      <c r="A5" s="16">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s" s="23">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s" s="24">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s" s="24">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s" s="24">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s" s="24">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s" s="25">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s" s="25">
+        <v>25</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="L5" t="s" s="27">
+        <v>30</v>
+      </c>
+      <c r="M5" t="s" s="27">
+        <v>31</v>
+      </c>
+      <c r="N5" s="28"/>
+    </row>
+    <row r="6" ht="139.45" customHeight="1">
+      <c r="A6" s="16">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s" s="17">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s" s="18">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s" s="18">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s" s="29">
         <v>20</v>
       </c>
-      <c r="C4" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="14">
+      <c r="J6" t="s" s="29">
+        <v>33</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" t="s" s="21">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s" s="21">
+        <v>35</v>
+      </c>
+      <c r="N6" t="s" s="22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="139.45" customHeight="1">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s" s="23">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s" s="24">
         <v>16</v>
       </c>
-      <c r="E4" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s" s="14">
+      <c r="D7" t="s" s="24">
         <v>17</v>
       </c>
-      <c r="G4" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s" s="14">
+      <c r="E7" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s" s="24">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s" s="24">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s" s="24">
+        <v>19</v>
+      </c>
+      <c r="I7" t="s" s="29">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s" s="29">
+        <v>25</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="L7" t="s" s="27">
+        <v>38</v>
+      </c>
+      <c r="M7" t="s" s="27">
+        <v>39</v>
+      </c>
+      <c r="N7" t="s" s="30">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" ht="186.25" customHeight="1">
+      <c r="A8" s="16">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s" s="17">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s" s="18">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s" s="18">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s" s="18">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="I4" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" t="s" s="15">
-        <v>23</v>
-      </c>
+      <c r="G8" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s" s="25">
+        <v>20</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" t="s" s="21">
+        <v>44</v>
+      </c>
+      <c r="M8" t="s" s="21">
+        <v>45</v>
+      </c>
+      <c r="N8" s="31"/>
     </row>
-    <row r="5" ht="68.2" customHeight="1">
-      <c r="A5" s="12">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="17">
+    <row r="9" ht="139.45" customHeight="1">
+      <c r="A9" s="16">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s" s="23">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s" s="24">
+        <v>42</v>
+      </c>
+      <c r="D9" t="s" s="24">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s" s="24">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s" s="24">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s" s="24">
         <v>24</v>
       </c>
-      <c r="C5" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="18">
+      <c r="H9" t="s" s="24">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s" s="25">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s" s="25">
+        <v>25</v>
+      </c>
+      <c r="K9" s="26"/>
+      <c r="L9" t="s" s="27">
+        <v>47</v>
+      </c>
+      <c r="M9" t="s" s="27">
+        <v>48</v>
+      </c>
+      <c r="N9" s="28"/>
+    </row>
+    <row r="10" ht="139.45" customHeight="1">
+      <c r="A10" s="16">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s" s="17">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s" s="18">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s" s="18">
         <v>16</v>
       </c>
-      <c r="E5" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s" s="18">
+      <c r="E10" t="s" s="18">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="I10" t="s" s="25">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s" s="25">
+        <v>25</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="L10" t="s" s="21">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s" s="21">
+        <v>51</v>
+      </c>
+      <c r="N10" s="31"/>
+    </row>
+    <row r="11" ht="139.45" customHeight="1">
+      <c r="A11" s="16">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s" s="23">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s" s="24">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s" s="24">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s" s="24">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s" s="24">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s" s="24">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s" s="24">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="28"/>
+    </row>
+    <row r="12" ht="225.15" customHeight="1">
+      <c r="A12" s="16">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s" s="17">
+        <v>53</v>
+      </c>
+      <c r="C12" t="s" s="18">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s" s="18">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s" s="18">
         <v>17</v>
       </c>
-      <c r="H5" t="s" s="18">
+      <c r="F12" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="I5" t="s" s="19">
-        <v>22</v>
-      </c>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
+      <c r="G12" t="s" s="18">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s" s="18">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s" s="32">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s" s="32">
+        <v>20</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" t="s" s="21">
+        <v>54</v>
+      </c>
+      <c r="M12" t="s" s="21">
+        <v>55</v>
+      </c>
+      <c r="N12" t="s" s="22">
+        <v>56</v>
+      </c>
     </row>
-    <row r="6" ht="68.2" customHeight="1">
-      <c r="A6" s="12">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s" s="13">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s" s="14">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s" s="14">
+    <row r="13" ht="139.45" customHeight="1">
+      <c r="A13" s="16">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s" s="23">
+        <v>57</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" t="s" s="24">
         <v>18</v>
       </c>
-      <c r="I6" t="s" s="15">
+      <c r="G13" t="s" s="24">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s" s="24">
         <v>19</v>
       </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="22"/>
-    </row>
-    <row r="7" ht="68.2" customHeight="1">
-      <c r="A7" s="12">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s" s="17">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s" s="18">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="F7" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s" s="19">
-        <v>22</v>
-      </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="21"/>
-    </row>
-    <row r="8" ht="56.2" customHeight="1">
-      <c r="A8" s="12">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s" s="13">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s" s="14">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s" s="15">
-        <v>19</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="22"/>
-    </row>
-    <row r="9" ht="68.2" customHeight="1">
-      <c r="A9" s="12">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s" s="17">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s" s="18">
-        <v>28</v>
-      </c>
-      <c r="D9" t="s" s="18">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s" s="18">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s" s="18">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s" s="18">
-        <v>21</v>
-      </c>
-      <c r="H9" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s" s="19">
-        <v>22</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" ht="68.2" customHeight="1">
-      <c r="A10" s="12">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s" s="13">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s" s="14">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s" s="14">
-        <v>29</v>
-      </c>
-      <c r="F10" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="H10" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s" s="15">
-        <v>22</v>
-      </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="22"/>
-    </row>
-    <row r="11" ht="44.2" customHeight="1">
-      <c r="A11" s="12">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s" s="17">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s" s="18">
-        <v>28</v>
-      </c>
-      <c r="D11" t="s" s="18">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s" s="18">
-        <v>29</v>
-      </c>
-      <c r="F11" t="s" s="18">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s" s="18">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="I11" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="21"/>
-    </row>
-    <row r="12" ht="44.2" customHeight="1">
-      <c r="A12" s="12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s" s="13">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s" s="14">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="F12" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s" s="14">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s" s="15">
-        <v>19</v>
-      </c>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="22"/>
-    </row>
-    <row r="13" ht="44.2" customHeight="1">
-      <c r="A13" s="12">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s" s="17">
-        <v>34</v>
-      </c>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" t="s" s="18">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s" s="18">
-        <v>17</v>
-      </c>
-      <c r="H13" t="s" s="18">
-        <v>18</v>
-      </c>
-      <c r="I13" t="s" s="19">
-        <v>19</v>
-      </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
+      <c r="I13" t="s" s="30">
+        <v>20</v>
+      </c>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A1:N1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L3" r:id="rId1" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-action/actions/runs/6352041723/job/17254229039"/>
+    <hyperlink ref="M3" r:id="rId2" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-action/pull/3"/>
+    <hyperlink ref="L4" r:id="rId3" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-action/actions/runs/6352240352/job/17254747625"/>
+    <hyperlink ref="M4" r:id="rId4" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-action/pull/4"/>
+    <hyperlink ref="L5" r:id="rId5" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-action/actions/runs/6352564532/job/17255628402"/>
+    <hyperlink ref="M5" r:id="rId6" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-action/pull/5"/>
+    <hyperlink ref="L6" r:id="rId7" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-action/actions/runs/6352644266/job/17255903108"/>
+    <hyperlink ref="M6" r:id="rId8" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-action/pull/6"/>
+    <hyperlink ref="L7" r:id="rId9" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-action/actions/runs/6352917619/job/17256633112"/>
+    <hyperlink ref="M7" r:id="rId10" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-action/pull/8"/>
+    <hyperlink ref="L8" r:id="rId11" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-action/actions/runs/6353188276/job/17257364825"/>
+    <hyperlink ref="M8" r:id="rId12" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-action/pull/9"/>
+    <hyperlink ref="L9" r:id="rId13" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-action/actions/runs/6353279879/job/17257657632"/>
+    <hyperlink ref="M9" r:id="rId14" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-action/pull/10"/>
+    <hyperlink ref="L10" r:id="rId15" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-action/actions/runs/6353327676/job/17257823655"/>
+    <hyperlink ref="M10" r:id="rId16" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-action/pull/11"/>
+    <hyperlink ref="L12" r:id="rId17" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-action/actions/runs/6353992406/job/17259689706"/>
+    <hyperlink ref="M12" r:id="rId18" location="" tooltip="" display="https://github.com/test-stuff-123/test-stale-review-action/pull/21"/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId19"/>
 </worksheet>
 </file>